--- a/Project Manager/Lista de problemas.xlsx
+++ b/Project Manager/Lista de problemas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>1 de Marzo</t>
   </si>
   <si>
-    <t>Abierto</t>
-  </si>
-  <si>
     <t>Tiempo extra</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>18 de Febrero</t>
   </si>
   <si>
-    <t xml:space="preserve">Abierto </t>
-  </si>
-  <si>
     <t>Analizar el Problema</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>28 de Marzo</t>
+  </si>
+  <si>
+    <t>13 de Marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrado </t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -742,10 +742,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -754,21 +754,21 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -777,21 +777,21 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -800,22 +800,22 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -823,18 +823,18 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -846,21 +846,21 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -869,21 +869,21 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -892,18 +892,18 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -915,26 +915,26 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -943,21 +943,21 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -966,21 +966,21 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -989,18 +989,18 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1012,26 +1012,26 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1040,21 +1040,21 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1063,21 +1063,21 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1086,44 +1086,44 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1132,18 +1132,18 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1152,30 +1152,30 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -1183,21 +1183,21 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1206,22 +1206,22 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
@@ -1229,21 +1229,21 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1252,21 +1252,21 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1275,18 +1275,18 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1295,16 +1295,16 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7">
